--- a/database/Project_Data.xlsx
+++ b/database/Project_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geffb\Desktop\Tecky\WSP\WSP012_Project\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B507C17F-604F-478E-9282-B70C9DA5DDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4331CFE3-B876-4A94-ADFC-AE89FD0E1815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19042" yWindow="-1103" windowWidth="19125" windowHeight="11236" firstSheet="9" activeTab="13" xr2:uid="{92F08B71-07A5-45B0-99A1-9C8247BDFA47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{92F08B71-07A5-45B0-99A1-9C8247BDFA47}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3410" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3411" uniqueCount="1089">
   <si>
     <t>id</t>
   </si>
@@ -3306,6 +3306,12 @@
   </si>
   <si>
     <t>2023-01-18 14:55:47</t>
+  </si>
+  <si>
+    <t>38806715</t>
+  </si>
+  <si>
+    <t>$2a$04$AvIPbbagfXqklLVaXXYiZ.xHYIDmL.xvvd.UrHySr5k4AEaaNH/82</t>
   </si>
 </sst>
 </file>
@@ -3721,8 +3727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89681126-5237-455A-856C-2B26CBD7FB95}">
   <dimension ref="A1:T101"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="J85" sqref="J85"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="R89" sqref="R89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3733,7 +3739,7 @@
     <col min="4" max="4" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="19.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="1"/>
@@ -3792,7 +3798,7 @@
         <v>24525402</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -3824,7 +3830,7 @@
         <v>57060794</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -3856,7 +3862,7 @@
         <v>94713906</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H4" s="1">
         <v>2</v>
@@ -3888,7 +3894,7 @@
         <v>14685757</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H5" s="1">
         <v>2</v>
@@ -3920,7 +3926,7 @@
         <v>60515705</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H6" s="1">
         <v>2</v>
@@ -3952,7 +3958,7 @@
         <v>28207629</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H7" s="1">
         <v>2</v>
@@ -3984,7 +3990,7 @@
         <v>52947240</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H8" s="1">
         <v>2</v>
@@ -4016,7 +4022,7 @@
         <v>34170541</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H9" s="1">
         <v>2</v>
@@ -4048,7 +4054,7 @@
         <v>82903004</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H10" s="1">
         <v>2</v>
@@ -4080,7 +4086,7 @@
         <v>60303237</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H11" s="1">
         <v>2</v>
@@ -4112,7 +4118,7 @@
         <v>36493531</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H12" s="1">
         <v>2</v>
@@ -4144,7 +4150,7 @@
         <v>82</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H13" s="1">
         <v>2</v>
@@ -4176,7 +4182,7 @@
         <v>83</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H14" s="1">
         <v>2</v>
@@ -4208,7 +4214,7 @@
         <v>46626259</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H15" s="1">
         <v>2</v>
@@ -4240,7 +4246,7 @@
         <v>14903335</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H16" s="1">
         <v>2</v>
@@ -4272,7 +4278,7 @@
         <v>86583052</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H17" s="1">
         <v>2</v>
@@ -4304,7 +4310,7 @@
         <v>69011866</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H18" s="1">
         <v>2</v>
@@ -4336,7 +4342,7 @@
         <v>86467584</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H19" s="1">
         <v>2</v>
@@ -4368,7 +4374,7 @@
         <v>84</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H20" s="1">
         <v>2</v>
@@ -4400,7 +4406,7 @@
         <v>38142143</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H21" s="1">
         <v>2</v>
@@ -4432,7 +4438,7 @@
         <v>62084515</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H22" s="1">
         <v>1</v>
@@ -4464,7 +4470,7 @@
         <v>25890369</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H23" s="1">
         <v>2</v>
@@ -4496,7 +4502,7 @@
         <v>10223266</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H24" s="1">
         <v>2</v>
@@ -4528,7 +4534,7 @@
         <v>21984532</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H25" s="1">
         <v>2</v>
@@ -4560,7 +4566,7 @@
         <v>37299097</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H26" s="1">
         <v>2</v>
@@ -4592,7 +4598,7 @@
         <v>42689302</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H27" s="1">
         <v>2</v>
@@ -4624,7 +4630,7 @@
         <v>92825467</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H28" s="1">
         <v>2</v>
@@ -4656,7 +4662,7 @@
         <v>59809431</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H29" s="1">
         <v>2</v>
@@ -4688,7 +4694,7 @@
         <v>90994799</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H30" s="1">
         <v>2</v>
@@ -4720,7 +4726,7 @@
         <v>92235387</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H31" s="1">
         <v>2</v>
@@ -4752,7 +4758,7 @@
         <v>79262859</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H32" s="1">
         <v>2</v>
@@ -4784,7 +4790,7 @@
         <v>85</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H33" s="1">
         <v>2</v>
@@ -4816,7 +4822,7 @@
         <v>26434632</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H34" s="1">
         <v>2</v>
@@ -4848,7 +4854,7 @@
         <v>78887454</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H35" s="1">
         <v>2</v>
@@ -4880,7 +4886,7 @@
         <v>72440777</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H36" s="1">
         <v>2</v>
@@ -4912,7 +4918,7 @@
         <v>86</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H37" s="1">
         <v>1</v>
@@ -4944,7 +4950,7 @@
         <v>19091891</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H38" s="1">
         <v>2</v>
@@ -4976,7 +4982,7 @@
         <v>90557839</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H39" s="1">
         <v>2</v>
@@ -5008,7 +5014,7 @@
         <v>68043701</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H40" s="1">
         <v>2</v>
@@ -5040,7 +5046,7 @@
         <v>42426903</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H41" s="1">
         <v>2</v>
@@ -5072,7 +5078,7 @@
         <v>46681742</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H42" s="1">
         <v>2</v>
@@ -5104,7 +5110,7 @@
         <v>93975858</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H43" s="1">
         <v>2</v>
@@ -5136,7 +5142,7 @@
         <v>35188903</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H44" s="1">
         <v>2</v>
@@ -5168,7 +5174,7 @@
         <v>87</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H45" s="1">
         <v>2</v>
@@ -5200,7 +5206,7 @@
         <v>28729013</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H46" s="1">
         <v>1</v>
@@ -5232,7 +5238,7 @@
         <v>22570600</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H47" s="1">
         <v>2</v>
@@ -5264,7 +5270,7 @@
         <v>88</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H48" s="1">
         <v>2</v>
@@ -5296,7 +5302,7 @@
         <v>86922958</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H49" s="1">
         <v>2</v>
@@ -5328,7 +5334,7 @@
         <v>86436566</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H50" s="1">
         <v>2</v>
@@ -5360,7 +5366,7 @@
         <v>75380206</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H51" s="1">
         <v>2</v>
@@ -5392,7 +5398,7 @@
         <v>18270909</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H52" s="1">
         <v>2</v>
@@ -5424,7 +5430,7 @@
         <v>62564319</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H53" s="1">
         <v>2</v>
@@ -5456,7 +5462,7 @@
         <v>73182935</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H54" s="1">
         <v>2</v>
@@ -5488,7 +5494,7 @@
         <v>21770892</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H55" s="1">
         <v>2</v>
@@ -5520,7 +5526,7 @@
         <v>89032776</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H56" s="1">
         <v>2</v>
@@ -5552,7 +5558,7 @@
         <v>84401453</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H57" s="1">
         <v>2</v>
@@ -5584,7 +5590,7 @@
         <v>34287307</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H58" s="1">
         <v>1</v>
@@ -5616,7 +5622,7 @@
         <v>18713246</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H59" s="1">
         <v>2</v>
@@ -5648,7 +5654,7 @@
         <v>55298168</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H60" s="1">
         <v>2</v>
@@ -5680,7 +5686,7 @@
         <v>31430907</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H61" s="1">
         <v>2</v>
@@ -5712,7 +5718,7 @@
         <v>47024498</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H62" s="1">
         <v>2</v>
@@ -5744,7 +5750,7 @@
         <v>89</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H63" s="1">
         <v>2</v>
@@ -5776,7 +5782,7 @@
         <v>17040135</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H64" s="1">
         <v>2</v>
@@ -5808,7 +5814,7 @@
         <v>68540910</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H65" s="1">
         <v>2</v>
@@ -5840,7 +5846,7 @@
         <v>80325877</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H66" s="1">
         <v>2</v>
@@ -5872,7 +5878,7 @@
         <v>67307935</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H67" s="1">
         <v>2</v>
@@ -5904,7 +5910,7 @@
         <v>19534338</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H68" s="1">
         <v>2</v>
@@ -5936,7 +5942,7 @@
         <v>89258111</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H69" s="1">
         <v>2</v>
@@ -5968,7 +5974,7 @@
         <v>29486020</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H70" s="1">
         <v>1</v>
@@ -6000,7 +6006,7 @@
         <v>30534151</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H71" s="1">
         <v>2</v>
@@ -6032,7 +6038,7 @@
         <v>40492520</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H72" s="1">
         <v>2</v>
@@ -6064,7 +6070,7 @@
         <v>40672045</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H73" s="1">
         <v>2</v>
@@ -6096,7 +6102,7 @@
         <v>46464032</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H74" s="1">
         <v>2</v>
@@ -6128,7 +6134,7 @@
         <v>49376026</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H75" s="1">
         <v>2</v>
@@ -6160,7 +6166,7 @@
         <v>73075459</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H76" s="1">
         <v>2</v>
@@ -6192,7 +6198,7 @@
         <v>98052346</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H77" s="1">
         <v>1</v>
@@ -6224,7 +6230,7 @@
         <v>15481084</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H78" s="1">
         <v>2</v>
@@ -6256,7 +6262,7 @@
         <v>39630579</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H79" s="1">
         <v>2</v>
@@ -6288,7 +6294,7 @@
         <v>83146202</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H80" s="1">
         <v>2</v>
@@ -6320,7 +6326,7 @@
         <v>86707179</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H81" s="1">
         <v>2</v>
@@ -6352,7 +6358,7 @@
         <v>40342542</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H82" s="1">
         <v>1</v>
@@ -6384,7 +6390,7 @@
         <v>78791420</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H83" s="1">
         <v>2</v>
@@ -6412,11 +6418,11 @@
       <c r="D84" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E84" s="1">
-        <v>38806715</v>
+      <c r="E84" s="1" t="s">
+        <v>1087</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H84" s="1">
         <v>2</v>
@@ -6448,7 +6454,7 @@
         <v>92040568</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H85" s="1">
         <v>2</v>
@@ -6480,7 +6486,7 @@
         <v>90</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H86" s="1">
         <v>2</v>
@@ -6512,7 +6518,7 @@
         <v>81700104</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H87" s="1">
         <v>1</v>
@@ -6544,7 +6550,7 @@
         <v>78771117</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H88" s="1">
         <v>2</v>
@@ -6576,7 +6582,7 @@
         <v>92</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H89" s="1">
         <v>2</v>
@@ -6608,7 +6614,7 @@
         <v>93</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H90" s="1">
         <v>2</v>
@@ -6640,7 +6646,7 @@
         <v>24460781</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H91" s="1">
         <v>1</v>
@@ -6672,7 +6678,7 @@
         <v>38447660</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H92" s="1">
         <v>2</v>
@@ -6704,7 +6710,7 @@
         <v>91</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H93" s="1">
         <v>2</v>
@@ -6736,7 +6742,7 @@
         <v>62104183</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H94" s="1">
         <v>2</v>
@@ -6768,7 +6774,7 @@
         <v>54709573</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H95" s="1">
         <v>2</v>
@@ -6800,7 +6806,7 @@
         <v>84352829</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H96" s="1">
         <v>2</v>
@@ -6832,7 +6838,7 @@
         <v>72641669</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H97" s="1">
         <v>1</v>
@@ -6864,7 +6870,7 @@
         <v>77424584</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H98" s="1">
         <v>2</v>
@@ -6896,7 +6902,7 @@
         <v>11627771</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H99" s="1">
         <v>2</v>
@@ -6928,7 +6934,7 @@
         <v>17389523</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H100" s="1">
         <v>2</v>
@@ -6960,7 +6966,7 @@
         <v>24800409</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>6</v>
+        <v>1088</v>
       </c>
       <c r="H101" s="1">
         <v>2</v>
@@ -7756,7 +7762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1411D3-6099-4529-BBF2-121DB70152D1}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>

--- a/database/Project_Data.xlsx
+++ b/database/Project_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geffb\Desktop\Tecky\WSP\WSP012_Project\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4331CFE3-B876-4A94-ADFC-AE89FD0E1815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B2C645-E5FF-4C28-A5BC-134CAB3AFEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{92F08B71-07A5-45B0-99A1-9C8247BDFA47}"/>
+    <workbookView xWindow="375" yWindow="240" windowWidth="19005" windowHeight="11175" xr2:uid="{92F08B71-07A5-45B0-99A1-9C8247BDFA47}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3411" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3411" uniqueCount="1088">
   <si>
     <t>id</t>
   </si>
@@ -3309,9 +3309,6 @@
   </si>
   <si>
     <t>38806715</t>
-  </si>
-  <si>
-    <t>$2a$04$AvIPbbagfXqklLVaXXYiZ.xHYIDmL.xvvd.UrHySr5k4AEaaNH/82</t>
   </si>
 </sst>
 </file>
@@ -3727,8 +3724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89681126-5237-455A-856C-2B26CBD7FB95}">
   <dimension ref="A1:T101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="R89" sqref="R89"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3798,7 +3795,7 @@
         <v>24525402</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -3830,7 +3827,7 @@
         <v>57060794</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -3862,7 +3859,7 @@
         <v>94713906</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H4" s="1">
         <v>2</v>
@@ -3894,7 +3891,7 @@
         <v>14685757</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H5" s="1">
         <v>2</v>
@@ -3926,7 +3923,7 @@
         <v>60515705</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H6" s="1">
         <v>2</v>
@@ -3958,7 +3955,7 @@
         <v>28207629</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H7" s="1">
         <v>2</v>
@@ -3990,7 +3987,7 @@
         <v>52947240</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H8" s="1">
         <v>2</v>
@@ -4022,7 +4019,7 @@
         <v>34170541</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H9" s="1">
         <v>2</v>
@@ -4054,7 +4051,7 @@
         <v>82903004</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H10" s="1">
         <v>2</v>
@@ -4086,7 +4083,7 @@
         <v>60303237</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H11" s="1">
         <v>2</v>
@@ -4118,7 +4115,7 @@
         <v>36493531</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H12" s="1">
         <v>2</v>
@@ -4150,7 +4147,7 @@
         <v>82</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H13" s="1">
         <v>2</v>
@@ -4182,7 +4179,7 @@
         <v>83</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H14" s="1">
         <v>2</v>
@@ -4214,7 +4211,7 @@
         <v>46626259</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H15" s="1">
         <v>2</v>
@@ -4246,7 +4243,7 @@
         <v>14903335</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H16" s="1">
         <v>2</v>
@@ -4278,7 +4275,7 @@
         <v>86583052</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H17" s="1">
         <v>2</v>
@@ -4310,7 +4307,7 @@
         <v>69011866</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H18" s="1">
         <v>2</v>
@@ -4342,7 +4339,7 @@
         <v>86467584</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H19" s="1">
         <v>2</v>
@@ -4374,7 +4371,7 @@
         <v>84</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H20" s="1">
         <v>2</v>
@@ -4406,7 +4403,7 @@
         <v>38142143</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H21" s="1">
         <v>2</v>
@@ -4438,7 +4435,7 @@
         <v>62084515</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H22" s="1">
         <v>1</v>
@@ -4470,7 +4467,7 @@
         <v>25890369</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H23" s="1">
         <v>2</v>
@@ -4502,7 +4499,7 @@
         <v>10223266</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H24" s="1">
         <v>2</v>
@@ -4534,7 +4531,7 @@
         <v>21984532</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H25" s="1">
         <v>2</v>
@@ -4566,7 +4563,7 @@
         <v>37299097</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H26" s="1">
         <v>2</v>
@@ -4598,7 +4595,7 @@
         <v>42689302</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H27" s="1">
         <v>2</v>
@@ -4630,7 +4627,7 @@
         <v>92825467</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H28" s="1">
         <v>2</v>
@@ -4662,7 +4659,7 @@
         <v>59809431</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H29" s="1">
         <v>2</v>
@@ -4694,7 +4691,7 @@
         <v>90994799</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H30" s="1">
         <v>2</v>
@@ -4726,7 +4723,7 @@
         <v>92235387</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H31" s="1">
         <v>2</v>
@@ -4758,7 +4755,7 @@
         <v>79262859</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H32" s="1">
         <v>2</v>
@@ -4790,7 +4787,7 @@
         <v>85</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H33" s="1">
         <v>2</v>
@@ -4822,7 +4819,7 @@
         <v>26434632</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H34" s="1">
         <v>2</v>
@@ -4854,7 +4851,7 @@
         <v>78887454</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H35" s="1">
         <v>2</v>
@@ -4886,7 +4883,7 @@
         <v>72440777</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H36" s="1">
         <v>2</v>
@@ -4918,7 +4915,7 @@
         <v>86</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H37" s="1">
         <v>1</v>
@@ -4950,7 +4947,7 @@
         <v>19091891</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H38" s="1">
         <v>2</v>
@@ -4982,7 +4979,7 @@
         <v>90557839</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H39" s="1">
         <v>2</v>
@@ -5014,7 +5011,7 @@
         <v>68043701</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H40" s="1">
         <v>2</v>
@@ -5046,7 +5043,7 @@
         <v>42426903</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H41" s="1">
         <v>2</v>
@@ -5078,7 +5075,7 @@
         <v>46681742</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H42" s="1">
         <v>2</v>
@@ -5110,7 +5107,7 @@
         <v>93975858</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H43" s="1">
         <v>2</v>
@@ -5142,7 +5139,7 @@
         <v>35188903</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H44" s="1">
         <v>2</v>
@@ -5174,7 +5171,7 @@
         <v>87</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H45" s="1">
         <v>2</v>
@@ -5206,7 +5203,7 @@
         <v>28729013</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H46" s="1">
         <v>1</v>
@@ -5238,7 +5235,7 @@
         <v>22570600</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H47" s="1">
         <v>2</v>
@@ -5270,7 +5267,7 @@
         <v>88</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H48" s="1">
         <v>2</v>
@@ -5302,7 +5299,7 @@
         <v>86922958</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H49" s="1">
         <v>2</v>
@@ -5334,7 +5331,7 @@
         <v>86436566</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H50" s="1">
         <v>2</v>
@@ -5366,7 +5363,7 @@
         <v>75380206</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H51" s="1">
         <v>2</v>
@@ -5398,7 +5395,7 @@
         <v>18270909</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H52" s="1">
         <v>2</v>
@@ -5430,7 +5427,7 @@
         <v>62564319</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H53" s="1">
         <v>2</v>
@@ -5462,7 +5459,7 @@
         <v>73182935</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H54" s="1">
         <v>2</v>
@@ -5494,7 +5491,7 @@
         <v>21770892</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H55" s="1">
         <v>2</v>
@@ -5526,7 +5523,7 @@
         <v>89032776</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H56" s="1">
         <v>2</v>
@@ -5558,7 +5555,7 @@
         <v>84401453</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H57" s="1">
         <v>2</v>
@@ -5590,7 +5587,7 @@
         <v>34287307</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H58" s="1">
         <v>1</v>
@@ -5622,7 +5619,7 @@
         <v>18713246</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H59" s="1">
         <v>2</v>
@@ -5654,7 +5651,7 @@
         <v>55298168</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H60" s="1">
         <v>2</v>
@@ -5686,7 +5683,7 @@
         <v>31430907</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H61" s="1">
         <v>2</v>
@@ -5718,7 +5715,7 @@
         <v>47024498</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H62" s="1">
         <v>2</v>
@@ -5750,7 +5747,7 @@
         <v>89</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H63" s="1">
         <v>2</v>
@@ -5782,7 +5779,7 @@
         <v>17040135</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H64" s="1">
         <v>2</v>
@@ -5814,7 +5811,7 @@
         <v>68540910</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H65" s="1">
         <v>2</v>
@@ -5846,7 +5843,7 @@
         <v>80325877</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H66" s="1">
         <v>2</v>
@@ -5878,7 +5875,7 @@
         <v>67307935</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H67" s="1">
         <v>2</v>
@@ -5910,7 +5907,7 @@
         <v>19534338</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H68" s="1">
         <v>2</v>
@@ -5942,7 +5939,7 @@
         <v>89258111</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H69" s="1">
         <v>2</v>
@@ -5974,7 +5971,7 @@
         <v>29486020</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H70" s="1">
         <v>1</v>
@@ -6006,7 +6003,7 @@
         <v>30534151</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H71" s="1">
         <v>2</v>
@@ -6038,7 +6035,7 @@
         <v>40492520</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H72" s="1">
         <v>2</v>
@@ -6070,7 +6067,7 @@
         <v>40672045</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H73" s="1">
         <v>2</v>
@@ -6102,7 +6099,7 @@
         <v>46464032</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H74" s="1">
         <v>2</v>
@@ -6134,7 +6131,7 @@
         <v>49376026</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H75" s="1">
         <v>2</v>
@@ -6166,7 +6163,7 @@
         <v>73075459</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H76" s="1">
         <v>2</v>
@@ -6198,7 +6195,7 @@
         <v>98052346</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H77" s="1">
         <v>1</v>
@@ -6230,7 +6227,7 @@
         <v>15481084</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H78" s="1">
         <v>2</v>
@@ -6262,7 +6259,7 @@
         <v>39630579</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H79" s="1">
         <v>2</v>
@@ -6294,7 +6291,7 @@
         <v>83146202</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H80" s="1">
         <v>2</v>
@@ -6326,7 +6323,7 @@
         <v>86707179</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H81" s="1">
         <v>2</v>
@@ -6358,7 +6355,7 @@
         <v>40342542</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H82" s="1">
         <v>1</v>
@@ -6390,7 +6387,7 @@
         <v>78791420</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H83" s="1">
         <v>2</v>
@@ -6422,7 +6419,7 @@
         <v>1087</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H84" s="1">
         <v>2</v>
@@ -6454,7 +6451,7 @@
         <v>92040568</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H85" s="1">
         <v>2</v>
@@ -6486,7 +6483,7 @@
         <v>90</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H86" s="1">
         <v>2</v>
@@ -6518,7 +6515,7 @@
         <v>81700104</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H87" s="1">
         <v>1</v>
@@ -6550,7 +6547,7 @@
         <v>78771117</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H88" s="1">
         <v>2</v>
@@ -6582,7 +6579,7 @@
         <v>92</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H89" s="1">
         <v>2</v>
@@ -6614,7 +6611,7 @@
         <v>93</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H90" s="1">
         <v>2</v>
@@ -6646,7 +6643,7 @@
         <v>24460781</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H91" s="1">
         <v>1</v>
@@ -6678,7 +6675,7 @@
         <v>38447660</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H92" s="1">
         <v>2</v>
@@ -6710,7 +6707,7 @@
         <v>91</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H93" s="1">
         <v>2</v>
@@ -6742,7 +6739,7 @@
         <v>62104183</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H94" s="1">
         <v>2</v>
@@ -6774,7 +6771,7 @@
         <v>54709573</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H95" s="1">
         <v>2</v>
@@ -6806,7 +6803,7 @@
         <v>84352829</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H96" s="1">
         <v>2</v>
@@ -6838,7 +6835,7 @@
         <v>72641669</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H97" s="1">
         <v>1</v>
@@ -6870,7 +6867,7 @@
         <v>77424584</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H98" s="1">
         <v>2</v>
@@ -6902,7 +6899,7 @@
         <v>11627771</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H99" s="1">
         <v>2</v>
@@ -6934,7 +6931,7 @@
         <v>17389523</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H100" s="1">
         <v>2</v>
@@ -6966,7 +6963,7 @@
         <v>24800409</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>1088</v>
+        <v>6</v>
       </c>
       <c r="H101" s="1">
         <v>2</v>

--- a/database/Project_Data.xlsx
+++ b/database/Project_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geffb\Desktop\Tecky\WSP\WSP012_Project\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6B703B-C5FC-4EFB-A184-8B82BF14D38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF66800-733B-4AFE-9FDE-44FBE25D14BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37" yWindow="10702" windowWidth="19394" windowHeight="11476" firstSheet="1" activeTab="2" xr2:uid="{92F08B71-07A5-45B0-99A1-9C8247BDFA47}"/>
   </bookViews>
@@ -3292,23 +3292,24 @@
     <t>sales_end_date</t>
   </si>
   <si>
+    <t>{"early_discount":false,"discount_amout":0,"early_date":null,"other_discount":{}}</t>
+  </si>
+  <si>
+    <t>2023-01-19 14:55:47</t>
+  </si>
+  <si>
+    <t>2023-01-18 14:55:47</t>
+  </si>
+  <si>
+    <t>38806715</t>
+  </si>
+  <si>
     <t>{
   "banner": "default_banner_picture.jpg",
   "title": "Default Title for the show",
+  "description":"A 100 Word description of your show",
   "content":"&lt;p&gt;&lt;strong&gt;Body&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Are you excited for the show?&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Show details:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;time&lt;/li&gt;&lt;li&gt;hello world&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;"
 }</t>
-  </si>
-  <si>
-    <t>{"early_discount":false,"discount_amout":0,"early_date":null,"other_discount":{}}</t>
-  </si>
-  <si>
-    <t>2023-01-19 14:55:47</t>
-  </si>
-  <si>
-    <t>2023-01-18 14:55:47</t>
-  </si>
-  <si>
-    <t>38806715</t>
   </si>
 </sst>
 </file>
@@ -6416,7 +6417,7 @@
         <v>196</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>6</v>
@@ -8188,8 +8189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3255307-EFF8-4552-9330-483BB0071945}">
   <dimension ref="A1:N326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F59" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" topLeftCell="E57" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8254,7 +8255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8268,10 +8269,10 @@
         <v>797</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F2" t="s">
         <v>1083</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1084</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -8298,7 +8299,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8312,10 +8313,10 @@
         <v>771</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F3" t="s">
         <v>1083</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1084</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -8342,7 +8343,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8356,10 +8357,10 @@
         <v>746</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F4" t="s">
         <v>1083</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1084</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -8386,7 +8387,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8400,10 +8401,10 @@
         <v>774</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F5" t="s">
         <v>1083</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1084</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -8430,7 +8431,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8444,10 +8445,10 @@
         <v>949</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F6" t="s">
         <v>1083</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1084</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -8474,7 +8475,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8488,10 +8489,10 @@
         <v>794</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F7" t="s">
         <v>1083</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1084</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -8518,7 +8519,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8532,10 +8533,10 @@
         <v>787</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F8" t="s">
         <v>1083</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1084</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -8562,7 +8563,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8576,10 +8577,10 @@
         <v>764</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F9" t="s">
         <v>1083</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1084</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -8606,7 +8607,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8620,10 +8621,10 @@
         <v>756</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F10" t="s">
         <v>1083</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1084</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -8650,7 +8651,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8664,10 +8665,10 @@
         <v>786</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F11" t="s">
         <v>1083</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1084</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -8694,7 +8695,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8708,10 +8709,10 @@
         <v>765</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F12" t="s">
         <v>1083</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1084</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -8738,7 +8739,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8752,10 +8753,10 @@
         <v>948</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F13" t="s">
         <v>1083</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1084</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -8782,7 +8783,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8796,10 +8797,10 @@
         <v>755</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F14" t="s">
         <v>1083</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1084</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -8826,7 +8827,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8840,10 +8841,10 @@
         <v>803</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F15" t="s">
         <v>1083</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1084</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -8870,7 +8871,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8884,10 +8885,10 @@
         <v>751</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F16" t="s">
         <v>1083</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1084</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -8914,7 +8915,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8928,10 +8929,10 @@
         <v>719</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F17" t="s">
         <v>1083</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1084</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -8958,7 +8959,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8972,10 +8973,10 @@
         <v>757</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F18" t="s">
         <v>1083</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1084</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -9002,7 +9003,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9016,10 +9017,10 @@
         <v>758</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F19" t="s">
         <v>1083</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1084</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -9046,7 +9047,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9060,10 +9061,10 @@
         <v>775</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F20" t="s">
         <v>1083</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1084</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -9090,7 +9091,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9104,10 +9105,10 @@
         <v>795</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F21" t="s">
         <v>1083</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1084</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -9134,7 +9135,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9148,10 +9149,10 @@
         <v>759</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F22" t="s">
         <v>1083</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1084</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -9178,7 +9179,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9192,10 +9193,10 @@
         <v>766</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F23" t="s">
         <v>1083</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1084</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -9222,7 +9223,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9236,10 +9237,10 @@
         <v>767</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F24" t="s">
         <v>1083</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1084</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -9266,7 +9267,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9280,10 +9281,10 @@
         <v>788</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F25" t="s">
         <v>1083</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1084</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -9310,7 +9311,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9324,10 +9325,10 @@
         <v>747</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F26" t="s">
         <v>1083</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1084</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -9354,7 +9355,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -9368,10 +9369,10 @@
         <v>768</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F27" t="s">
         <v>1083</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1084</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -9398,7 +9399,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -9412,10 +9413,10 @@
         <v>769</v>
       </c>
       <c r="E28" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F28" t="s">
         <v>1083</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1084</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -9442,7 +9443,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -9456,10 +9457,10 @@
         <v>760</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F29" t="s">
         <v>1083</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1084</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -9486,7 +9487,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -9500,10 +9501,10 @@
         <v>752</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F30" t="s">
         <v>1083</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1084</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -9530,7 +9531,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -9544,10 +9545,10 @@
         <v>720</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F31" t="s">
         <v>1083</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1084</v>
       </c>
       <c r="G31">
         <v>4</v>
@@ -9574,7 +9575,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -9588,10 +9589,10 @@
         <v>798</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F32" t="s">
         <v>1083</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1084</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -9618,7 +9619,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -9632,10 +9633,10 @@
         <v>770</v>
       </c>
       <c r="E33" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F33" t="s">
         <v>1083</v>
-      </c>
-      <c r="F33" t="s">
-        <v>1084</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -9662,7 +9663,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -9676,10 +9677,10 @@
         <v>796</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F34" t="s">
         <v>1083</v>
-      </c>
-      <c r="F34" t="s">
-        <v>1084</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -9706,7 +9707,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9720,10 +9721,10 @@
         <v>761</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F35" t="s">
         <v>1083</v>
-      </c>
-      <c r="F35" t="s">
-        <v>1084</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -9750,7 +9751,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9764,10 +9765,10 @@
         <v>748</v>
       </c>
       <c r="E36" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F36" t="s">
         <v>1083</v>
-      </c>
-      <c r="F36" t="s">
-        <v>1084</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -9794,7 +9795,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9808,10 +9809,10 @@
         <v>776</v>
       </c>
       <c r="E37" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F37" t="s">
         <v>1083</v>
-      </c>
-      <c r="F37" t="s">
-        <v>1084</v>
       </c>
       <c r="G37">
         <v>4</v>
@@ -9838,7 +9839,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9852,10 +9853,10 @@
         <v>754</v>
       </c>
       <c r="E38" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F38" t="s">
         <v>1083</v>
-      </c>
-      <c r="F38" t="s">
-        <v>1084</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -9882,7 +9883,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9896,10 +9897,10 @@
         <v>722</v>
       </c>
       <c r="E39" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F39" t="s">
         <v>1083</v>
-      </c>
-      <c r="F39" t="s">
-        <v>1084</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -9926,7 +9927,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9940,10 +9941,10 @@
         <v>799</v>
       </c>
       <c r="E40" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F40" t="s">
         <v>1083</v>
-      </c>
-      <c r="F40" t="s">
-        <v>1084</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -9970,7 +9971,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9984,10 +9985,10 @@
         <v>789</v>
       </c>
       <c r="E41" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F41" t="s">
         <v>1083</v>
-      </c>
-      <c r="F41" t="s">
-        <v>1084</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -10014,7 +10015,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -10028,10 +10029,10 @@
         <v>755</v>
       </c>
       <c r="E42" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F42" t="s">
         <v>1083</v>
-      </c>
-      <c r="F42" t="s">
-        <v>1084</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -10058,7 +10059,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -10072,10 +10073,10 @@
         <v>790</v>
       </c>
       <c r="E43" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F43" t="s">
         <v>1083</v>
-      </c>
-      <c r="F43" t="s">
-        <v>1084</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -10102,7 +10103,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -10116,10 +10117,10 @@
         <v>800</v>
       </c>
       <c r="E44" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F44" t="s">
         <v>1083</v>
-      </c>
-      <c r="F44" t="s">
-        <v>1084</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -10146,7 +10147,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -10160,10 +10161,10 @@
         <v>804</v>
       </c>
       <c r="E45" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F45" t="s">
         <v>1083</v>
-      </c>
-      <c r="F45" t="s">
-        <v>1084</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -10190,7 +10191,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -10204,10 +10205,10 @@
         <v>801</v>
       </c>
       <c r="E46" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F46" t="s">
         <v>1083</v>
-      </c>
-      <c r="F46" t="s">
-        <v>1084</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -10234,7 +10235,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -10248,10 +10249,10 @@
         <v>749</v>
       </c>
       <c r="E47" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F47" t="s">
         <v>1083</v>
-      </c>
-      <c r="F47" t="s">
-        <v>1084</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -10278,7 +10279,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -10292,10 +10293,10 @@
         <v>750</v>
       </c>
       <c r="E48" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F48" t="s">
         <v>1083</v>
-      </c>
-      <c r="F48" t="s">
-        <v>1084</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -10322,7 +10323,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -10336,10 +10337,10 @@
         <v>773</v>
       </c>
       <c r="E49" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F49" t="s">
         <v>1083</v>
-      </c>
-      <c r="F49" t="s">
-        <v>1084</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -10366,7 +10367,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>50</v>
       </c>
@@ -10380,10 +10381,10 @@
         <v>762</v>
       </c>
       <c r="E50" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F50" t="s">
         <v>1083</v>
-      </c>
-      <c r="F50" t="s">
-        <v>1084</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -10410,7 +10411,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>51</v>
       </c>
@@ -10424,10 +10425,10 @@
         <v>721</v>
       </c>
       <c r="E51" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F51" t="s">
         <v>1083</v>
-      </c>
-      <c r="F51" t="s">
-        <v>1084</v>
       </c>
       <c r="G51">
         <v>4</v>
@@ -10454,7 +10455,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>52</v>
       </c>
@@ -10468,10 +10469,10 @@
         <v>753</v>
       </c>
       <c r="E52" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F52" t="s">
         <v>1083</v>
-      </c>
-      <c r="F52" t="s">
-        <v>1084</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -10498,7 +10499,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>53</v>
       </c>
@@ -10512,10 +10513,10 @@
         <v>777</v>
       </c>
       <c r="E53" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F53" t="s">
         <v>1083</v>
-      </c>
-      <c r="F53" t="s">
-        <v>1084</v>
       </c>
       <c r="G53">
         <v>4</v>
@@ -10542,7 +10543,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>54</v>
       </c>
@@ -10556,10 +10557,10 @@
         <v>758</v>
       </c>
       <c r="E54" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F54" t="s">
         <v>1083</v>
-      </c>
-      <c r="F54" t="s">
-        <v>1084</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -10586,7 +10587,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>55</v>
       </c>
@@ -10600,10 +10601,10 @@
         <v>782</v>
       </c>
       <c r="E55" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F55" t="s">
         <v>1083</v>
-      </c>
-      <c r="F55" t="s">
-        <v>1084</v>
       </c>
       <c r="G55">
         <v>4</v>
@@ -10630,7 +10631,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>56</v>
       </c>
@@ -10644,10 +10645,10 @@
         <v>763</v>
       </c>
       <c r="E56" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F56" t="s">
         <v>1083</v>
-      </c>
-      <c r="F56" t="s">
-        <v>1084</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -10674,7 +10675,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>57</v>
       </c>
@@ -10688,10 +10689,10 @@
         <v>802</v>
       </c>
       <c r="E57" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F57" t="s">
         <v>1083</v>
-      </c>
-      <c r="F57" t="s">
-        <v>1084</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -10718,7 +10719,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>58</v>
       </c>
@@ -10732,10 +10733,10 @@
         <v>778</v>
       </c>
       <c r="E58" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F58" t="s">
         <v>1083</v>
-      </c>
-      <c r="F58" t="s">
-        <v>1084</v>
       </c>
       <c r="G58">
         <v>4</v>
@@ -10762,7 +10763,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>59</v>
       </c>
@@ -10776,10 +10777,10 @@
         <v>772</v>
       </c>
       <c r="E59" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F59" t="s">
         <v>1083</v>
-      </c>
-      <c r="F59" t="s">
-        <v>1084</v>
       </c>
       <c r="G59">
         <v>4</v>
@@ -13525,10 +13526,10 @@
         <v>1079</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -13539,10 +13540,10 @@
         <v>956</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
   </sheetData>

--- a/database/Project_Data.xlsx
+++ b/database/Project_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geffb\Desktop\Tecky\WSP\WSP012_Project\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF66800-733B-4AFE-9FDE-44FBE25D14BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16AFE761-CB31-42EF-A10D-485C343F99A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37" yWindow="10702" windowWidth="19394" windowHeight="11476" firstSheet="1" activeTab="2" xr2:uid="{92F08B71-07A5-45B0-99A1-9C8247BDFA47}"/>
+    <workbookView xWindow="-28920" yWindow="3255" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{92F08B71-07A5-45B0-99A1-9C8247BDFA47}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3144" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3148" uniqueCount="1089">
   <si>
     <t>id</t>
   </si>
@@ -3310,6 +3310,9 @@
   "description":"A 100 Word description of your show",
   "content":"&lt;p&gt;&lt;strong&gt;Body&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Are you excited for the show?&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;Show details:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;time&lt;/li&gt;&lt;li&gt;hello world&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;"
 }</t>
+  </si>
+  <si>
+    <t>[pending]</t>
   </si>
 </sst>
 </file>
@@ -3396,20 +3399,20 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3729,22 +3732,23 @@
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.73046875" style="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="11" width="19.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1328125" style="1"/>
+    <col min="13" max="20" width="9.06640625" customWidth="1"/>
+    <col min="21" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3779,7 +3783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3811,7 +3815,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3843,7 +3847,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3875,7 +3879,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3907,7 +3911,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3939,7 +3943,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3971,7 +3975,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4003,7 +4007,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4035,7 +4039,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4067,7 +4071,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4099,7 +4103,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4131,7 +4135,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4163,7 +4167,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4195,7 +4199,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4227,7 +4231,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4259,7 +4263,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4291,7 +4295,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4323,7 +4327,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4355,7 +4359,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4387,7 +4391,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4419,7 +4423,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4451,7 +4455,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4483,7 +4487,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4515,7 +4519,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4547,7 +4551,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4579,7 +4583,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4611,7 +4615,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4643,7 +4647,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4675,7 +4679,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4707,7 +4711,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4739,7 +4743,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4771,7 +4775,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4803,7 +4807,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4835,7 +4839,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4867,7 +4871,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4899,7 +4903,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4931,7 +4935,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4963,7 +4967,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4995,7 +4999,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5027,7 +5031,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5059,7 +5063,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5091,7 +5095,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5123,7 +5127,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5155,7 +5159,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5187,7 +5191,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5219,7 +5223,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5251,7 +5255,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5283,7 +5287,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5315,7 +5319,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5347,7 +5351,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5379,7 +5383,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5411,7 +5415,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5443,7 +5447,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5475,7 +5479,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5507,7 +5511,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5539,7 +5543,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5571,7 +5575,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5603,7 +5607,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5635,7 +5639,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5667,7 +5671,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5699,7 +5703,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5731,7 +5735,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5763,7 +5767,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5795,7 +5799,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5827,7 +5831,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5859,7 +5863,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5891,7 +5895,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5923,7 +5927,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5955,7 +5959,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5987,7 +5991,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6019,7 +6023,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6051,7 +6055,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6083,7 +6087,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6115,7 +6119,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6147,7 +6151,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6179,7 +6183,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6211,7 +6215,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6243,7 +6247,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6275,7 +6279,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6307,7 +6311,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6339,7 +6343,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6371,7 +6375,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6403,7 +6407,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6435,7 +6439,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6467,7 +6471,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6499,7 +6503,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6531,7 +6535,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6563,7 +6567,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6595,7 +6599,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6627,7 +6631,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6659,7 +6663,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6691,7 +6695,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6723,7 +6727,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6755,7 +6759,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6787,7 +6791,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6819,7 +6823,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6851,7 +6855,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6883,7 +6887,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6915,7 +6919,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6947,7 +6951,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6997,9 +7001,9 @@
       <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7016,7 +7020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7033,7 +7037,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7050,7 +7054,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7067,7 +7071,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7084,7 +7088,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7101,7 +7105,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7118,7 +7122,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7135,7 +7139,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7152,7 +7156,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7169,7 +7173,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7202,16 +7206,16 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7228,7 +7232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7245,7 +7249,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7275,16 +7279,16 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7301,7 +7305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7318,7 +7322,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7335,7 +7339,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7352,7 +7356,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7369,7 +7373,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7386,7 +7390,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7403,7 +7407,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7420,7 +7424,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7437,7 +7441,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7454,7 +7458,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7482,17 +7486,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="18.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7518,7 +7522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7546,7 +7550,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7574,7 +7578,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7602,7 +7606,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7630,7 +7634,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7658,7 +7662,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7686,7 +7690,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7714,7 +7718,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7742,11 +7746,11 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
@@ -7764,18 +7768,18 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7798,7 +7802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7821,7 +7825,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7844,7 +7848,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7880,18 +7884,18 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
-    <col min="7" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.59765625" customWidth="1"/>
+    <col min="7" max="8" width="19.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7917,7 +7921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7943,7 +7947,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7969,7 +7973,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7995,7 +7999,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8021,7 +8025,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8047,7 +8051,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8073,7 +8077,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8099,7 +8103,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8125,7 +8129,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8151,7 +8155,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8189,29 +8193,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3255307-EFF8-4552-9330-483BB0071945}">
   <dimension ref="A1:N326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E57" workbookViewId="0">
+    <sheetView topLeftCell="A60" workbookViewId="0">
       <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="57.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="18.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="1" customWidth="1"/>
-    <col min="11" max="12" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.265625" customWidth="1"/>
+    <col min="4" max="4" width="57.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.265625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.86328125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="18.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8255,7 +8259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8299,7 +8303,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8343,7 +8347,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8387,7 +8391,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8431,7 +8435,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8475,7 +8479,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8519,7 +8523,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8563,7 +8567,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8607,7 +8611,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8651,7 +8655,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8695,7 +8699,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8739,7 +8743,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8783,7 +8787,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8827,7 +8831,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8871,7 +8875,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8915,7 +8919,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8959,7 +8963,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9003,7 +9007,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9047,7 +9051,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9091,7 +9095,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9135,7 +9139,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9179,7 +9183,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9223,7 +9227,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9267,7 +9271,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9311,7 +9315,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9355,7 +9359,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -9399,7 +9403,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -9443,7 +9447,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -9487,7 +9491,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -9531,7 +9535,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -9575,7 +9579,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -9619,7 +9623,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -9663,7 +9667,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -9707,7 +9711,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9751,7 +9755,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9795,7 +9799,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9839,7 +9843,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9883,7 +9887,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9927,7 +9931,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9971,7 +9975,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -10015,7 +10019,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -10059,7 +10063,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -10103,7 +10107,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -10147,7 +10151,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -10191,7 +10195,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -10235,7 +10239,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -10279,7 +10283,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -10323,7 +10327,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
@@ -10367,7 +10371,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>50</v>
       </c>
@@ -10411,7 +10415,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>51</v>
       </c>
@@ -10455,7 +10459,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>52</v>
       </c>
@@ -10499,7 +10503,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>53</v>
       </c>
@@ -10543,7 +10547,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>54</v>
       </c>
@@ -10587,7 +10591,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>55</v>
       </c>
@@ -10631,7 +10635,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>56</v>
       </c>
@@ -10675,7 +10679,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>57</v>
       </c>
@@ -10719,7 +10723,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>58</v>
       </c>
@@ -10763,7 +10767,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="114" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>59</v>
       </c>
@@ -10807,814 +10811,814 @@
         <v>611</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
       <c r="F60"/>
       <c r="K60" s="2"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
       <c r="F61"/>
       <c r="K61" s="2"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
       <c r="F62"/>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
       <c r="F63"/>
       <c r="K63" s="2"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.45">
       <c r="F64"/>
       <c r="K64" s="2"/>
     </row>
-    <row r="65" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F65"/>
       <c r="K65" s="2"/>
     </row>
-    <row r="66" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F66"/>
       <c r="K66" s="2"/>
     </row>
-    <row r="67" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F67"/>
       <c r="K67" s="2"/>
     </row>
-    <row r="68" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F68"/>
       <c r="K68" s="2"/>
     </row>
-    <row r="69" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F69"/>
     </row>
-    <row r="70" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F70"/>
     </row>
-    <row r="71" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F71"/>
     </row>
-    <row r="72" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F72"/>
     </row>
-    <row r="73" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F73"/>
     </row>
-    <row r="74" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F74"/>
     </row>
-    <row r="75" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F75"/>
     </row>
-    <row r="76" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F76"/>
     </row>
-    <row r="77" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F77"/>
     </row>
-    <row r="78" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F78"/>
     </row>
-    <row r="79" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F79"/>
     </row>
-    <row r="80" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F80"/>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F81"/>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F82"/>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F83"/>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F84"/>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F85"/>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F86"/>
     </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F87"/>
     </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F88"/>
     </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F89"/>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F90"/>
     </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F91"/>
     </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F92"/>
     </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F93"/>
     </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F94"/>
     </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F95"/>
     </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F96"/>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F97"/>
     </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F98"/>
     </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F99"/>
     </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F100"/>
     </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F101"/>
     </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F102"/>
     </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F103"/>
     </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F104"/>
     </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F105"/>
     </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F106"/>
     </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F107"/>
     </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F108"/>
     </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F109"/>
     </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F110"/>
     </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F111"/>
     </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F112"/>
     </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F113"/>
     </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F114"/>
     </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F115"/>
     </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F116"/>
     </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F117"/>
     </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F118"/>
     </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F119"/>
     </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F120"/>
     </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F121"/>
     </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F122"/>
     </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F123"/>
     </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F124"/>
     </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F125"/>
     </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F126"/>
     </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F127"/>
     </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F128"/>
     </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F129"/>
     </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F130"/>
     </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F131"/>
     </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F132"/>
     </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F133"/>
     </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F134"/>
     </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F135"/>
     </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F136"/>
     </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F137"/>
     </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F138"/>
     </row>
-    <row r="139" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F139"/>
     </row>
-    <row r="140" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F140"/>
     </row>
-    <row r="141" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F141"/>
     </row>
-    <row r="142" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F142"/>
     </row>
-    <row r="143" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F143"/>
     </row>
-    <row r="144" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F144"/>
     </row>
-    <row r="145" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F145"/>
     </row>
-    <row r="146" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F146"/>
     </row>
-    <row r="147" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F147"/>
     </row>
-    <row r="148" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F148"/>
     </row>
-    <row r="149" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F149"/>
     </row>
-    <row r="150" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F150"/>
     </row>
-    <row r="151" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F151"/>
     </row>
-    <row r="152" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F152"/>
     </row>
-    <row r="153" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F153"/>
     </row>
-    <row r="154" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F154"/>
     </row>
-    <row r="155" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F155"/>
     </row>
-    <row r="156" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F156"/>
     </row>
-    <row r="157" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F157"/>
     </row>
-    <row r="158" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F158"/>
     </row>
-    <row r="159" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F159"/>
     </row>
-    <row r="160" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F160"/>
     </row>
-    <row r="161" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F161"/>
     </row>
-    <row r="162" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F162"/>
     </row>
-    <row r="163" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F163"/>
     </row>
-    <row r="164" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F164"/>
     </row>
-    <row r="165" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F165"/>
     </row>
-    <row r="166" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F166"/>
     </row>
-    <row r="167" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F167"/>
     </row>
-    <row r="168" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F168"/>
     </row>
-    <row r="169" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F169"/>
     </row>
-    <row r="170" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F170"/>
     </row>
-    <row r="171" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F171"/>
     </row>
-    <row r="172" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F172"/>
     </row>
-    <row r="173" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F173"/>
     </row>
-    <row r="174" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F174"/>
     </row>
-    <row r="175" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F175"/>
     </row>
-    <row r="176" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F176"/>
     </row>
-    <row r="177" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F177"/>
     </row>
-    <row r="178" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F178"/>
     </row>
-    <row r="179" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F179"/>
     </row>
-    <row r="180" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F180"/>
     </row>
-    <row r="181" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F181"/>
     </row>
-    <row r="182" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F182"/>
     </row>
-    <row r="183" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F183"/>
     </row>
-    <row r="184" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F184"/>
     </row>
-    <row r="185" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F185"/>
     </row>
-    <row r="186" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F186"/>
     </row>
-    <row r="187" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F187"/>
     </row>
-    <row r="188" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F188"/>
     </row>
-    <row r="189" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F189"/>
     </row>
-    <row r="190" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F190"/>
     </row>
-    <row r="191" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F191"/>
     </row>
-    <row r="192" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F192"/>
     </row>
-    <row r="193" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F193"/>
     </row>
-    <row r="194" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F194"/>
     </row>
-    <row r="195" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F195"/>
     </row>
-    <row r="196" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F196"/>
     </row>
-    <row r="197" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F197"/>
     </row>
-    <row r="198" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F198"/>
     </row>
-    <row r="199" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F199"/>
     </row>
-    <row r="200" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F200"/>
     </row>
-    <row r="201" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F201"/>
     </row>
-    <row r="202" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F202"/>
     </row>
-    <row r="203" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F203"/>
     </row>
-    <row r="204" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F204"/>
     </row>
-    <row r="205" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F205"/>
     </row>
-    <row r="206" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F206"/>
     </row>
-    <row r="207" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F207"/>
     </row>
-    <row r="208" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F208"/>
     </row>
-    <row r="209" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F209"/>
     </row>
-    <row r="210" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F210"/>
     </row>
-    <row r="211" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F211"/>
     </row>
-    <row r="212" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F212"/>
     </row>
-    <row r="213" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F213"/>
     </row>
-    <row r="214" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F214"/>
     </row>
-    <row r="215" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F215"/>
     </row>
-    <row r="216" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F216"/>
     </row>
-    <row r="217" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F217"/>
     </row>
-    <row r="218" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F218"/>
     </row>
-    <row r="219" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F219"/>
     </row>
-    <row r="220" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F220"/>
     </row>
-    <row r="221" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F221"/>
     </row>
-    <row r="222" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F222"/>
     </row>
-    <row r="223" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F223"/>
     </row>
-    <row r="224" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F224"/>
     </row>
-    <row r="225" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F225"/>
     </row>
-    <row r="226" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F226"/>
     </row>
-    <row r="227" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F227"/>
     </row>
-    <row r="228" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F228"/>
     </row>
-    <row r="229" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F229"/>
     </row>
-    <row r="230" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F230"/>
     </row>
-    <row r="231" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F231"/>
     </row>
-    <row r="232" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F232"/>
     </row>
-    <row r="233" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F233"/>
     </row>
-    <row r="234" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F234"/>
     </row>
-    <row r="235" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F235"/>
     </row>
-    <row r="236" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F236"/>
     </row>
-    <row r="237" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F237"/>
     </row>
-    <row r="238" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F238"/>
     </row>
-    <row r="239" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F239"/>
     </row>
-    <row r="240" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F240"/>
     </row>
-    <row r="241" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F241"/>
     </row>
-    <row r="242" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F242"/>
     </row>
-    <row r="243" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F243"/>
     </row>
-    <row r="244" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F244"/>
     </row>
-    <row r="245" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F245"/>
     </row>
-    <row r="246" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F246"/>
     </row>
-    <row r="247" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F247"/>
     </row>
-    <row r="248" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F248"/>
     </row>
-    <row r="249" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F249"/>
     </row>
-    <row r="250" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F250"/>
     </row>
-    <row r="251" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F251"/>
     </row>
-    <row r="252" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F252"/>
     </row>
-    <row r="253" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F253"/>
     </row>
-    <row r="254" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F254"/>
     </row>
-    <row r="255" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F255"/>
     </row>
-    <row r="256" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F256"/>
     </row>
-    <row r="257" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F257"/>
     </row>
-    <row r="258" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F258"/>
     </row>
-    <row r="259" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F259"/>
     </row>
-    <row r="260" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F260"/>
     </row>
-    <row r="261" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F261"/>
     </row>
-    <row r="262" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F262"/>
     </row>
-    <row r="263" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F263"/>
     </row>
-    <row r="264" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F264"/>
     </row>
-    <row r="265" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F265"/>
     </row>
-    <row r="266" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F266"/>
     </row>
-    <row r="267" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F267"/>
     </row>
-    <row r="268" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F268"/>
     </row>
-    <row r="269" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F269"/>
     </row>
-    <row r="270" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F270"/>
     </row>
-    <row r="271" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F271"/>
     </row>
-    <row r="272" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F272"/>
     </row>
-    <row r="273" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F273"/>
     </row>
-    <row r="274" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F274"/>
     </row>
-    <row r="275" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F275"/>
     </row>
-    <row r="276" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F276"/>
     </row>
-    <row r="277" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F277"/>
     </row>
-    <row r="278" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F278"/>
     </row>
-    <row r="279" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F279"/>
     </row>
-    <row r="280" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F280"/>
     </row>
-    <row r="281" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F281"/>
     </row>
-    <row r="282" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F282"/>
     </row>
-    <row r="283" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F283"/>
     </row>
-    <row r="284" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F284"/>
     </row>
-    <row r="285" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F285"/>
     </row>
-    <row r="286" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F286"/>
     </row>
-    <row r="287" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F287"/>
     </row>
-    <row r="288" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F288"/>
     </row>
-    <row r="289" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F289"/>
     </row>
-    <row r="290" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F290"/>
     </row>
-    <row r="291" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F291"/>
     </row>
-    <row r="292" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F292"/>
     </row>
-    <row r="293" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F293"/>
     </row>
-    <row r="294" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F294"/>
     </row>
-    <row r="295" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F295"/>
     </row>
-    <row r="296" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F296"/>
     </row>
-    <row r="297" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F297"/>
     </row>
-    <row r="298" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F298"/>
     </row>
-    <row r="299" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F299"/>
     </row>
-    <row r="300" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F300"/>
     </row>
-    <row r="301" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F301"/>
     </row>
-    <row r="302" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F302"/>
     </row>
-    <row r="303" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F303"/>
     </row>
-    <row r="304" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F304"/>
     </row>
-    <row r="305" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F305"/>
     </row>
-    <row r="306" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F306"/>
     </row>
-    <row r="307" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F307"/>
     </row>
-    <row r="308" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F308"/>
     </row>
-    <row r="309" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F309"/>
     </row>
-    <row r="310" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F310"/>
     </row>
-    <row r="311" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F311"/>
     </row>
-    <row r="312" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F312"/>
     </row>
-    <row r="313" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F313"/>
     </row>
-    <row r="314" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F314"/>
     </row>
-    <row r="315" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F315"/>
     </row>
-    <row r="316" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F316"/>
     </row>
-    <row r="317" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F317"/>
     </row>
-    <row r="318" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F318"/>
     </row>
-    <row r="319" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F319"/>
     </row>
-    <row r="320" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F320"/>
     </row>
-    <row r="321" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F321"/>
     </row>
-    <row r="322" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F322"/>
     </row>
-    <row r="323" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F323"/>
     </row>
-    <row r="324" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F324"/>
     </row>
-    <row r="325" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F325"/>
     </row>
-    <row r="326" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F326"/>
     </row>
   </sheetData>
@@ -11635,15 +11639,15 @@
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.86328125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11660,7 +11664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11677,7 +11681,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11694,7 +11698,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11711,7 +11715,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11728,7 +11732,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11745,7 +11749,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11762,7 +11766,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11779,7 +11783,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11796,7 +11800,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11813,7 +11817,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11830,7 +11834,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11847,7 +11851,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11864,7 +11868,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11881,7 +11885,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11898,7 +11902,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11915,7 +11919,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11932,7 +11936,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11949,7 +11953,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11966,7 +11970,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11983,7 +11987,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -12000,7 +12004,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -12017,7 +12021,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -12034,7 +12038,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -12051,7 +12055,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -12068,7 +12072,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -12085,7 +12089,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -12102,7 +12106,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -12119,7 +12123,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -12136,7 +12140,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -12153,7 +12157,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -12170,7 +12174,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -12187,7 +12191,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -12204,7 +12208,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -12221,7 +12225,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -12238,7 +12242,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -12255,7 +12259,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -12272,7 +12276,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -12289,7 +12293,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -12306,7 +12310,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -12323,7 +12327,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -12340,7 +12344,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -12357,7 +12361,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -12374,7 +12378,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -12391,7 +12395,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -12408,7 +12412,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -12425,7 +12429,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -12442,7 +12446,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -12459,7 +12463,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
@@ -12476,7 +12480,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>50</v>
       </c>
@@ -12493,7 +12497,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>51</v>
       </c>
@@ -12510,7 +12514,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>52</v>
       </c>
@@ -12527,7 +12531,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>53</v>
       </c>
@@ -12544,7 +12548,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>54</v>
       </c>
@@ -12561,7 +12565,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>55</v>
       </c>
@@ -12578,7 +12582,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>56</v>
       </c>
@@ -12595,7 +12599,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>57</v>
       </c>
@@ -12612,7 +12616,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>58</v>
       </c>
@@ -12629,7 +12633,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>59</v>
       </c>
@@ -12651,7 +12655,7 @@
     <sortCondition ref="A5:A59"/>
   </sortState>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -12660,22 +12664,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72B99A2-BCA4-4A31-96F2-4658E0896B0F}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1328125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12695,7 +12699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12715,7 +12719,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12735,7 +12739,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12755,7 +12759,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12775,7 +12779,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -12795,7 +12799,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12815,7 +12819,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -12835,7 +12839,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -12855,7 +12859,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -12875,7 +12879,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -12895,7 +12899,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -12915,7 +12919,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -12935,7 +12939,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -12955,7 +12959,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -12975,7 +12979,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -12995,7 +12999,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -13015,7 +13019,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -13035,7 +13039,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -13055,7 +13059,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -13075,7 +13079,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -13095,7 +13099,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -13115,7 +13119,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -13135,7 +13139,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -13155,7 +13159,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -13175,7 +13179,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -13195,7 +13199,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -13215,7 +13219,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -13232,7 +13236,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -13252,7 +13256,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -13269,7 +13273,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -13286,7 +13290,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -13303,7 +13307,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -13320,7 +13324,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -13337,7 +13341,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -13354,7 +13358,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -13368,6 +13372,23 @@
         <v>493</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>827</v>
       </c>
     </row>
@@ -13385,9 +13406,9 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13401,7 +13422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13415,7 +13436,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13429,7 +13450,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13443,7 +13464,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13457,7 +13478,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13488,17 +13509,17 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.265625" customWidth="1"/>
+    <col min="6" max="6" width="26.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13518,7 +13539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13532,7 +13553,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13559,26 +13580,26 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="6" max="6" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1328125" style="1"/>
     <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="57.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="57.59765625" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13606,7 +13627,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13633,7 +13654,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13660,7 +13681,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13687,7 +13708,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13714,7 +13735,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13741,7 +13762,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13768,7 +13789,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13795,7 +13816,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13822,7 +13843,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -13849,7 +13870,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -13876,7 +13897,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -13903,7 +13924,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -13930,7 +13951,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -13957,7 +13978,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -13984,7 +14005,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -14011,7 +14032,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -14038,7 +14059,7 @@
       </c>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -14065,7 +14086,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -14092,7 +14113,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -14119,7 +14140,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -14146,7 +14167,7 @@
       </c>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -14173,7 +14194,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -14200,7 +14221,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -14227,7 +14248,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -14254,7 +14275,7 @@
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -14281,7 +14302,7 @@
       </c>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -14308,7 +14329,7 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -14335,7 +14356,7 @@
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -14362,7 +14383,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -14389,7 +14410,7 @@
       </c>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -14416,7 +14437,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -14443,7 +14464,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -14470,7 +14491,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -14497,7 +14518,7 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -14524,7 +14545,7 @@
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -14551,7 +14572,7 @@
       </c>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -14578,7 +14599,7 @@
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -14605,7 +14626,7 @@
       </c>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -14632,7 +14653,7 @@
       </c>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -14659,7 +14680,7 @@
       </c>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -14686,7 +14707,7 @@
       </c>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -14713,7 +14734,7 @@
       </c>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -14740,7 +14761,7 @@
       </c>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -14767,7 +14788,7 @@
       </c>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -14794,7 +14815,7 @@
       </c>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -14821,7 +14842,7 @@
       </c>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -14848,7 +14869,7 @@
       </c>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -14875,7 +14896,7 @@
       </c>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
@@ -14902,7 +14923,7 @@
       </c>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
@@ -14929,7 +14950,7 @@
       </c>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
@@ -14956,7 +14977,7 @@
       </c>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
@@ -14983,7 +15004,7 @@
       </c>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
@@ -15010,7 +15031,7 @@
       </c>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
@@ -15037,7 +15058,7 @@
       </c>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
@@ -15064,7 +15085,7 @@
       </c>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
@@ -15091,7 +15112,7 @@
       </c>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
@@ -15118,7 +15139,7 @@
       </c>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
@@ -15145,7 +15166,7 @@
       </c>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
@@ -15172,7 +15193,7 @@
       </c>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
@@ -15199,7 +15220,7 @@
       </c>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
@@ -15226,7 +15247,7 @@
       </c>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
@@ -15253,7 +15274,7 @@
       </c>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
@@ -15280,7 +15301,7 @@
       </c>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
@@ -15307,7 +15328,7 @@
       </c>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>64</v>
       </c>
@@ -15334,7 +15355,7 @@
       </c>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
@@ -15361,7 +15382,7 @@
       </c>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
@@ -15388,7 +15409,7 @@
       </c>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
@@ -15415,7 +15436,7 @@
       </c>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
@@ -15442,7 +15463,7 @@
       </c>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
@@ -15469,7 +15490,7 @@
       </c>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
@@ -15496,7 +15517,7 @@
       </c>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>71</v>
       </c>
@@ -15523,7 +15544,7 @@
       </c>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>72</v>
       </c>
@@ -15550,7 +15571,7 @@
       </c>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>73</v>
       </c>
@@ -15577,7 +15598,7 @@
       </c>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>74</v>
       </c>
@@ -15604,7 +15625,7 @@
       </c>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>75</v>
       </c>
@@ -15631,7 +15652,7 @@
       </c>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>76</v>
       </c>
@@ -15658,7 +15679,7 @@
       </c>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>77</v>
       </c>
@@ -15685,7 +15706,7 @@
       </c>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>78</v>
       </c>
@@ -15712,7 +15733,7 @@
       </c>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>79</v>
       </c>
@@ -15739,7 +15760,7 @@
       </c>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>80</v>
       </c>
@@ -15766,7 +15787,7 @@
       </c>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>81</v>
       </c>
@@ -15793,7 +15814,7 @@
       </c>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>82</v>
       </c>
@@ -15820,7 +15841,7 @@
       </c>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>83</v>
       </c>
@@ -15847,7 +15868,7 @@
       </c>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>84</v>
       </c>
@@ -15874,7 +15895,7 @@
       </c>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>85</v>
       </c>
@@ -15901,7 +15922,7 @@
       </c>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>86</v>
       </c>
@@ -15928,7 +15949,7 @@
       </c>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>87</v>
       </c>
@@ -15955,7 +15976,7 @@
       </c>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>88</v>
       </c>
@@ -15982,7 +16003,7 @@
       </c>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>89</v>
       </c>
@@ -16009,7 +16030,7 @@
       </c>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>90</v>
       </c>
@@ -16036,7 +16057,7 @@
       </c>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>91</v>
       </c>
@@ -16063,7 +16084,7 @@
       </c>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>92</v>
       </c>
@@ -16090,7 +16111,7 @@
       </c>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>93</v>
       </c>
@@ -16117,7 +16138,7 @@
       </c>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>94</v>
       </c>
@@ -16144,7 +16165,7 @@
       </c>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>95</v>
       </c>
@@ -16171,7 +16192,7 @@
       </c>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>96</v>
       </c>
@@ -16198,7 +16219,7 @@
       </c>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>97</v>
       </c>
@@ -16225,7 +16246,7 @@
       </c>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>98</v>
       </c>
@@ -16252,7 +16273,7 @@
       </c>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>99</v>
       </c>
@@ -16279,7 +16300,7 @@
       </c>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>100</v>
       </c>
@@ -16306,7 +16327,7 @@
       </c>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>101</v>
       </c>
@@ -16333,7 +16354,7 @@
       </c>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>102</v>
       </c>
@@ -16360,7 +16381,7 @@
       </c>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>103</v>
       </c>
@@ -16387,7 +16408,7 @@
       </c>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>104</v>
       </c>
@@ -16414,7 +16435,7 @@
       </c>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>105</v>
       </c>
@@ -16441,7 +16462,7 @@
       </c>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>106</v>
       </c>
@@ -16468,7 +16489,7 @@
       </c>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>107</v>
       </c>
@@ -16495,7 +16516,7 @@
       </c>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>108</v>
       </c>
@@ -16522,7 +16543,7 @@
       </c>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>109</v>
       </c>
@@ -16549,7 +16570,7 @@
       </c>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>110</v>
       </c>
@@ -16576,7 +16597,7 @@
       </c>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>111</v>
       </c>
@@ -16603,7 +16624,7 @@
       </c>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>112</v>
       </c>
@@ -16630,7 +16651,7 @@
       </c>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>113</v>
       </c>
@@ -16657,7 +16678,7 @@
       </c>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>114</v>
       </c>
@@ -16684,7 +16705,7 @@
       </c>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>115</v>
       </c>
@@ -16711,7 +16732,7 @@
       </c>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>116</v>
       </c>
@@ -16738,7 +16759,7 @@
       </c>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>117</v>
       </c>
@@ -16765,7 +16786,7 @@
       </c>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>118</v>
       </c>
@@ -16792,7 +16813,7 @@
       </c>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>119</v>
       </c>
@@ -16819,7 +16840,7 @@
       </c>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>120</v>
       </c>
@@ -16846,7 +16867,7 @@
       </c>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>121</v>
       </c>
@@ -16873,7 +16894,7 @@
       </c>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>122</v>
       </c>
@@ -16900,7 +16921,7 @@
       </c>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>123</v>
       </c>
@@ -16927,7 +16948,7 @@
       </c>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>124</v>
       </c>
@@ -16953,7 +16974,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>125</v>
       </c>
@@ -16979,7 +17000,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>126</v>
       </c>
@@ -17005,7 +17026,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>127</v>
       </c>
@@ -17031,7 +17052,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>128</v>
       </c>
@@ -17057,7 +17078,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>129</v>
       </c>
@@ -17083,7 +17104,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>130</v>
       </c>
@@ -17109,7 +17130,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>131</v>
       </c>
@@ -17135,7 +17156,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>132</v>
       </c>
@@ -17161,7 +17182,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>133</v>
       </c>
@@ -17187,7 +17208,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>134</v>
       </c>
@@ -17213,7 +17234,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>135</v>
       </c>
@@ -17239,7 +17260,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>136</v>
       </c>
@@ -17265,7 +17286,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>137</v>
       </c>
@@ -17291,7 +17312,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>138</v>
       </c>
@@ -17317,7 +17338,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>139</v>
       </c>
@@ -17343,7 +17364,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>140</v>
       </c>
@@ -17369,7 +17390,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>141</v>
       </c>
@@ -17395,7 +17416,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>142</v>
       </c>
@@ -17421,7 +17442,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>143</v>
       </c>
@@ -17447,7 +17468,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>144</v>
       </c>
@@ -17473,7 +17494,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>145</v>
       </c>
@@ -17499,7 +17520,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>146</v>
       </c>
@@ -17525,7 +17546,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>147</v>
       </c>
@@ -17551,7 +17572,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>148</v>
       </c>
@@ -17577,7 +17598,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>149</v>
       </c>
@@ -17603,7 +17624,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>150</v>
       </c>
@@ -17629,7 +17650,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>151</v>
       </c>
@@ -17655,7 +17676,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>152</v>
       </c>
@@ -17681,7 +17702,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>153</v>
       </c>
@@ -17707,7 +17728,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>154</v>
       </c>
@@ -17733,7 +17754,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>155</v>
       </c>
@@ -17759,7 +17780,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>157</v>
       </c>
@@ -17785,7 +17806,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>158</v>
       </c>
@@ -17811,7 +17832,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>159</v>
       </c>
@@ -17837,7 +17858,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>160</v>
       </c>
@@ -17863,7 +17884,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>161</v>
       </c>
@@ -17889,7 +17910,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>162</v>
       </c>
@@ -17915,7 +17936,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>163</v>
       </c>
@@ -17941,7 +17962,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>164</v>
       </c>
@@ -17967,7 +17988,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>165</v>
       </c>
@@ -17993,7 +18014,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>166</v>
       </c>
@@ -18019,7 +18040,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>167</v>
       </c>
@@ -18045,7 +18066,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>168</v>
       </c>
@@ -18071,7 +18092,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>169</v>
       </c>
@@ -18097,7 +18118,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>170</v>
       </c>
@@ -18123,7 +18144,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>171</v>
       </c>
@@ -18149,7 +18170,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>172</v>
       </c>
@@ -18175,7 +18196,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>173</v>
       </c>
@@ -18201,7 +18222,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>174</v>
       </c>
@@ -18227,7 +18248,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>175</v>
       </c>
@@ -18253,7 +18274,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>176</v>
       </c>
@@ -18279,7 +18300,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>177</v>
       </c>
@@ -18305,7 +18326,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>178</v>
       </c>
@@ -18331,7 +18352,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>179</v>
       </c>
@@ -18357,7 +18378,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>180</v>
       </c>
@@ -18383,7 +18404,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>181</v>
       </c>
@@ -18409,7 +18430,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>182</v>
       </c>
@@ -18435,7 +18456,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>183</v>
       </c>
@@ -18461,7 +18482,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>184</v>
       </c>
@@ -18487,7 +18508,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>185</v>
       </c>
@@ -18513,7 +18534,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>186</v>
       </c>
@@ -18539,7 +18560,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>187</v>
       </c>
@@ -18565,7 +18586,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>188</v>
       </c>
@@ -18591,7 +18612,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>189</v>
       </c>
@@ -18617,7 +18638,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>190</v>
       </c>
@@ -18643,7 +18664,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>191</v>
       </c>
@@ -18669,7 +18690,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>192</v>
       </c>
@@ -18695,7 +18716,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>193</v>
       </c>
@@ -18721,7 +18742,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>194</v>
       </c>
@@ -18747,7 +18768,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>195</v>
       </c>
@@ -18773,7 +18794,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>196</v>
       </c>
@@ -18799,7 +18820,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>197</v>
       </c>
@@ -18825,7 +18846,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>198</v>
       </c>
@@ -18851,7 +18872,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>199</v>
       </c>
@@ -18877,7 +18898,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>200</v>
       </c>
@@ -18903,7 +18924,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>201</v>
       </c>
@@ -18929,7 +18950,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>202</v>
       </c>
@@ -18955,7 +18976,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>203</v>
       </c>
@@ -18981,7 +19002,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>204</v>
       </c>
@@ -19007,7 +19028,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>205</v>
       </c>
@@ -19033,7 +19054,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>206</v>
       </c>
@@ -19059,7 +19080,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>207</v>
       </c>
@@ -19085,7 +19106,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>208</v>
       </c>
@@ -19111,7 +19132,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>209</v>
       </c>
@@ -19137,7 +19158,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>210</v>
       </c>
@@ -19163,7 +19184,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>211</v>
       </c>
@@ -19189,7 +19210,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>212</v>
       </c>
@@ -19215,7 +19236,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>213</v>
       </c>
@@ -19241,7 +19262,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>214</v>
       </c>
@@ -19267,7 +19288,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>215</v>
       </c>
@@ -19293,7 +19314,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>216</v>
       </c>
@@ -19319,7 +19340,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>217</v>
       </c>
@@ -19345,7 +19366,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>218</v>
       </c>
@@ -19371,7 +19392,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>219</v>
       </c>
@@ -19397,7 +19418,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>220</v>
       </c>
@@ -19423,7 +19444,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>221</v>
       </c>
@@ -19449,7 +19470,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>222</v>
       </c>
@@ -19475,7 +19496,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>223</v>
       </c>
@@ -19501,7 +19522,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>224</v>
       </c>
@@ -19527,7 +19548,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>225</v>
       </c>
@@ -19553,7 +19574,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>226</v>
       </c>
@@ -19579,7 +19600,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>227</v>
       </c>
@@ -19605,7 +19626,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>228</v>
       </c>
@@ -19631,7 +19652,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>229</v>
       </c>
@@ -19657,7 +19678,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>230</v>
       </c>
@@ -19683,7 +19704,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>231</v>
       </c>
@@ -19709,7 +19730,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>232</v>
       </c>
@@ -19735,7 +19756,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>233</v>
       </c>
@@ -19761,7 +19782,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>234</v>
       </c>
@@ -19787,7 +19808,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>235</v>
       </c>
@@ -19813,7 +19834,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>236</v>
       </c>
@@ -19839,7 +19860,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>237</v>
       </c>
@@ -19865,7 +19886,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>238</v>
       </c>
@@ -19891,7 +19912,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>239</v>
       </c>
@@ -19917,7 +19938,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>240</v>
       </c>
@@ -19943,7 +19964,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>241</v>
       </c>
@@ -19969,7 +19990,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>242</v>
       </c>
@@ -19995,7 +20016,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>243</v>
       </c>
@@ -20021,7 +20042,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>244</v>
       </c>
@@ -20047,7 +20068,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>245</v>
       </c>
@@ -20073,7 +20094,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>246</v>
       </c>
@@ -20099,7 +20120,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>247</v>
       </c>
@@ -20125,7 +20146,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>248</v>
       </c>
@@ -20151,7 +20172,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>249</v>
       </c>
@@ -20177,7 +20198,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>250</v>
       </c>
@@ -20203,7 +20224,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>251</v>
       </c>
@@ -20229,7 +20250,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>252</v>
       </c>
@@ -20255,7 +20276,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>253</v>
       </c>
@@ -20281,7 +20302,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>254</v>
       </c>
@@ -20307,7 +20328,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>255</v>
       </c>
@@ -20333,7 +20354,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>256</v>
       </c>
@@ -20359,7 +20380,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>257</v>
       </c>
@@ -20385,7 +20406,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>258</v>
       </c>
@@ -20411,7 +20432,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>259</v>
       </c>
@@ -20437,7 +20458,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>260</v>
       </c>
@@ -20463,7 +20484,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>261</v>
       </c>
@@ -20489,7 +20510,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>262</v>
       </c>
@@ -20515,7 +20536,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>263</v>
       </c>
@@ -20541,7 +20562,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>264</v>
       </c>
@@ -20567,7 +20588,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>265</v>
       </c>
@@ -20593,7 +20614,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>266</v>
       </c>
@@ -20619,7 +20640,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>267</v>
       </c>
@@ -20645,7 +20666,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>268</v>
       </c>
@@ -20671,7 +20692,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>269</v>
       </c>
@@ -20697,7 +20718,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>270</v>
       </c>
@@ -20723,7 +20744,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>271</v>
       </c>
@@ -20749,7 +20770,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>272</v>
       </c>
@@ -20775,7 +20796,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>273</v>
       </c>
@@ -20801,7 +20822,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>274</v>
       </c>
@@ -20827,7 +20848,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>275</v>
       </c>
@@ -20853,7 +20874,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>276</v>
       </c>
@@ -20879,7 +20900,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>277</v>
       </c>
@@ -20905,7 +20926,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>278</v>
       </c>
@@ -20931,7 +20952,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>279</v>
       </c>
@@ -20957,7 +20978,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>280</v>
       </c>
@@ -20983,7 +21004,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>281</v>
       </c>
@@ -21009,7 +21030,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>282</v>
       </c>
@@ -21035,7 +21056,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>283</v>
       </c>
@@ -21061,7 +21082,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>284</v>
       </c>
@@ -21087,7 +21108,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>285</v>
       </c>
@@ -21113,7 +21134,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>286</v>
       </c>
@@ -21139,7 +21160,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>287</v>
       </c>
@@ -21165,7 +21186,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>288</v>
       </c>
@@ -21191,7 +21212,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>289</v>
       </c>
@@ -21217,7 +21238,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>290</v>
       </c>
@@ -21243,7 +21264,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>291</v>
       </c>
@@ -21269,7 +21290,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>296</v>
       </c>
@@ -21295,7 +21316,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>297</v>
       </c>
@@ -21321,7 +21342,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>298</v>
       </c>
@@ -21347,7 +21368,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>299</v>
       </c>
@@ -21373,7 +21394,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>300</v>
       </c>
@@ -21399,7 +21420,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>301</v>
       </c>
@@ -21425,7 +21446,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>302</v>
       </c>
@@ -21451,7 +21472,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>303</v>
       </c>
@@ -21477,7 +21498,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>304</v>
       </c>
@@ -21503,7 +21524,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>305</v>
       </c>
@@ -21529,7 +21550,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>306</v>
       </c>
@@ -21555,7 +21576,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>307</v>
       </c>
@@ -21581,7 +21602,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>308</v>
       </c>
@@ -21607,7 +21628,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>309</v>
       </c>
@@ -21633,7 +21654,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>310</v>
       </c>
@@ -21659,7 +21680,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>311</v>
       </c>
@@ -21685,7 +21706,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>312</v>
       </c>
@@ -21711,7 +21732,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>313</v>
       </c>
@@ -21737,7 +21758,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>314</v>
       </c>
@@ -21763,7 +21784,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>315</v>
       </c>
@@ -21789,7 +21810,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>316</v>
       </c>
@@ -21815,7 +21836,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>317</v>
       </c>
@@ -21841,7 +21862,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>318</v>
       </c>
@@ -21867,7 +21888,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>319</v>
       </c>
@@ -21893,7 +21914,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>320</v>
       </c>
@@ -21919,7 +21940,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A317">
         <v>321</v>
       </c>
@@ -21945,7 +21966,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A318">
         <v>322</v>
       </c>
@@ -21971,7 +21992,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A319">
         <v>323</v>
       </c>
@@ -21997,7 +22018,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A320">
         <v>324</v>
       </c>
@@ -22023,7 +22044,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A321">
         <v>325</v>
       </c>
@@ -22049,7 +22070,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A322">
         <v>156</v>
       </c>
@@ -22075,7 +22096,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>292</v>
       </c>
@@ -22101,7 +22122,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A324">
         <v>293</v>
       </c>
@@ -22127,7 +22148,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A325">
         <v>294</v>
       </c>
@@ -22153,7 +22174,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A326">
         <v>295</v>
       </c>
@@ -22179,28 +22200,28 @@
         <v>780</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F327" s="1"/>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F328" s="1"/>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F329" s="1"/>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F330" s="1"/>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F331" s="1"/>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F332" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H326" xr:uid="{C9299134-059F-4C04-8D79-F967727D710D}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H326">
-      <sortCondition sortBy="cellColor" ref="A2:A326" dxfId="1"/>
+      <sortCondition sortBy="cellColor" ref="A2:A326" dxfId="2"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I124">
@@ -22223,19 +22244,19 @@
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.265625" customWidth="1"/>
+    <col min="2" max="2" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -22261,7 +22282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>3</v>
       </c>
@@ -22287,7 +22308,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>4</v>
       </c>
@@ -22313,7 +22334,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>8</v>
       </c>
@@ -22339,7 +22360,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -22365,7 +22386,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>6</v>
       </c>
@@ -22389,7 +22410,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -22413,7 +22434,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -22439,7 +22460,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>10</v>
       </c>
@@ -22462,7 +22483,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1</v>
       </c>
@@ -22488,7 +22509,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>

--- a/database/Project_Data.xlsx
+++ b/database/Project_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geffb\Desktop\Tecky\WSP\WSP012_Project\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F99AE4B-35DC-4D24-83C0-7990527BE146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F796A3-72F9-4FED-A71E-07B0E47D604F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="11" xr2:uid="{92F08B71-07A5-45B0-99A1-9C8247BDFA47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{92F08B71-07A5-45B0-99A1-9C8247BDFA47}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3412" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3512" uniqueCount="1088">
   <si>
     <t>id</t>
   </si>
@@ -3307,6 +3307,9 @@
   </si>
   <si>
     <t>[pending]</t>
+  </si>
+  <si>
+    <t>default_icon.png</t>
   </si>
 </sst>
 </file>
@@ -3722,8 +3725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89681126-5237-455A-856C-2B26CBD7FB95}">
   <dimension ref="A1:T101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3793,6 +3796,9 @@
       <c r="E2" s="1">
         <v>24525402</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
@@ -3825,6 +3831,9 @@
       <c r="E3" s="1">
         <v>57060794</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
@@ -3857,6 +3866,9 @@
       <c r="E4" s="1">
         <v>94713906</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3889,6 +3901,9 @@
       <c r="E5" s="1">
         <v>14685757</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
@@ -3921,6 +3936,9 @@
       <c r="E6" s="1">
         <v>60515705</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G6" s="1" t="s">
         <v>6</v>
       </c>
@@ -3953,6 +3971,9 @@
       <c r="E7" s="1">
         <v>28207629</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G7" s="1" t="s">
         <v>6</v>
       </c>
@@ -3985,6 +4006,9 @@
       <c r="E8" s="1">
         <v>52947240</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G8" s="1" t="s">
         <v>6</v>
       </c>
@@ -4017,6 +4041,9 @@
       <c r="E9" s="1">
         <v>34170541</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
@@ -4049,6 +4076,9 @@
       <c r="E10" s="1">
         <v>82903004</v>
       </c>
+      <c r="F10" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G10" s="1" t="s">
         <v>6</v>
       </c>
@@ -4081,6 +4111,9 @@
       <c r="E11" s="1">
         <v>60303237</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G11" s="1" t="s">
         <v>6</v>
       </c>
@@ -4113,6 +4146,9 @@
       <c r="E12" s="1">
         <v>36493531</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G12" s="1" t="s">
         <v>6</v>
       </c>
@@ -4145,6 +4181,9 @@
       <c r="E13" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="F13" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G13" s="1" t="s">
         <v>6</v>
       </c>
@@ -4177,6 +4216,9 @@
       <c r="E14" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="F14" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G14" s="1" t="s">
         <v>6</v>
       </c>
@@ -4209,6 +4251,9 @@
       <c r="E15" s="1">
         <v>46626259</v>
       </c>
+      <c r="F15" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G15" s="1" t="s">
         <v>6</v>
       </c>
@@ -4241,6 +4286,9 @@
       <c r="E16" s="1">
         <v>14903335</v>
       </c>
+      <c r="F16" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
@@ -4273,6 +4321,9 @@
       <c r="E17" s="1">
         <v>86583052</v>
       </c>
+      <c r="F17" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G17" s="1" t="s">
         <v>6</v>
       </c>
@@ -4305,6 +4356,9 @@
       <c r="E18" s="1">
         <v>69011866</v>
       </c>
+      <c r="F18" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G18" s="1" t="s">
         <v>6</v>
       </c>
@@ -4337,6 +4391,9 @@
       <c r="E19" s="1">
         <v>86467584</v>
       </c>
+      <c r="F19" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G19" s="1" t="s">
         <v>6</v>
       </c>
@@ -4369,6 +4426,9 @@
       <c r="E20" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="F20" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G20" s="1" t="s">
         <v>6</v>
       </c>
@@ -4401,6 +4461,9 @@
       <c r="E21" s="1">
         <v>38142143</v>
       </c>
+      <c r="F21" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G21" s="1" t="s">
         <v>6</v>
       </c>
@@ -4433,6 +4496,9 @@
       <c r="E22" s="1">
         <v>62084515</v>
       </c>
+      <c r="F22" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G22" s="1" t="s">
         <v>6</v>
       </c>
@@ -4465,6 +4531,9 @@
       <c r="E23" s="1">
         <v>25890369</v>
       </c>
+      <c r="F23" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G23" s="1" t="s">
         <v>6</v>
       </c>
@@ -4497,6 +4566,9 @@
       <c r="E24" s="1">
         <v>10223266</v>
       </c>
+      <c r="F24" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G24" s="1" t="s">
         <v>6</v>
       </c>
@@ -4529,6 +4601,9 @@
       <c r="E25" s="1">
         <v>21984532</v>
       </c>
+      <c r="F25" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G25" s="1" t="s">
         <v>6</v>
       </c>
@@ -4561,6 +4636,9 @@
       <c r="E26" s="1">
         <v>37299097</v>
       </c>
+      <c r="F26" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G26" s="1" t="s">
         <v>6</v>
       </c>
@@ -4593,6 +4671,9 @@
       <c r="E27" s="1">
         <v>42689302</v>
       </c>
+      <c r="F27" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G27" s="1" t="s">
         <v>6</v>
       </c>
@@ -4625,6 +4706,9 @@
       <c r="E28" s="1">
         <v>92825467</v>
       </c>
+      <c r="F28" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G28" s="1" t="s">
         <v>6</v>
       </c>
@@ -4657,6 +4741,9 @@
       <c r="E29" s="1">
         <v>59809431</v>
       </c>
+      <c r="F29" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G29" s="1" t="s">
         <v>6</v>
       </c>
@@ -4689,6 +4776,9 @@
       <c r="E30" s="1">
         <v>90994799</v>
       </c>
+      <c r="F30" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G30" s="1" t="s">
         <v>6</v>
       </c>
@@ -4721,6 +4811,9 @@
       <c r="E31" s="1">
         <v>92235387</v>
       </c>
+      <c r="F31" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G31" s="1" t="s">
         <v>6</v>
       </c>
@@ -4753,6 +4846,9 @@
       <c r="E32" s="1">
         <v>79262859</v>
       </c>
+      <c r="F32" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G32" s="1" t="s">
         <v>6</v>
       </c>
@@ -4785,6 +4881,9 @@
       <c r="E33" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="F33" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G33" s="1" t="s">
         <v>6</v>
       </c>
@@ -4817,6 +4916,9 @@
       <c r="E34" s="1">
         <v>26434632</v>
       </c>
+      <c r="F34" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G34" s="1" t="s">
         <v>6</v>
       </c>
@@ -4849,6 +4951,9 @@
       <c r="E35" s="1">
         <v>78887454</v>
       </c>
+      <c r="F35" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G35" s="1" t="s">
         <v>6</v>
       </c>
@@ -4881,6 +4986,9 @@
       <c r="E36" s="1">
         <v>72440777</v>
       </c>
+      <c r="F36" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G36" s="1" t="s">
         <v>6</v>
       </c>
@@ -4913,6 +5021,9 @@
       <c r="E37" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="F37" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G37" s="1" t="s">
         <v>6</v>
       </c>
@@ -4945,6 +5056,9 @@
       <c r="E38" s="1">
         <v>19091891</v>
       </c>
+      <c r="F38" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G38" s="1" t="s">
         <v>6</v>
       </c>
@@ -4977,6 +5091,9 @@
       <c r="E39" s="1">
         <v>90557839</v>
       </c>
+      <c r="F39" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G39" s="1" t="s">
         <v>6</v>
       </c>
@@ -5009,6 +5126,9 @@
       <c r="E40" s="1">
         <v>68043701</v>
       </c>
+      <c r="F40" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G40" s="1" t="s">
         <v>6</v>
       </c>
@@ -5041,6 +5161,9 @@
       <c r="E41" s="1">
         <v>42426903</v>
       </c>
+      <c r="F41" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G41" s="1" t="s">
         <v>6</v>
       </c>
@@ -5073,6 +5196,9 @@
       <c r="E42" s="1">
         <v>46681742</v>
       </c>
+      <c r="F42" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G42" s="1" t="s">
         <v>6</v>
       </c>
@@ -5105,6 +5231,9 @@
       <c r="E43" s="1">
         <v>93975858</v>
       </c>
+      <c r="F43" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G43" s="1" t="s">
         <v>6</v>
       </c>
@@ -5137,6 +5266,9 @@
       <c r="E44" s="1">
         <v>35188903</v>
       </c>
+      <c r="F44" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G44" s="1" t="s">
         <v>6</v>
       </c>
@@ -5169,6 +5301,9 @@
       <c r="E45" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="F45" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G45" s="1" t="s">
         <v>6</v>
       </c>
@@ -5201,6 +5336,9 @@
       <c r="E46" s="1">
         <v>28729013</v>
       </c>
+      <c r="F46" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G46" s="1" t="s">
         <v>6</v>
       </c>
@@ -5233,6 +5371,9 @@
       <c r="E47" s="1">
         <v>22570600</v>
       </c>
+      <c r="F47" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G47" s="1" t="s">
         <v>6</v>
       </c>
@@ -5265,6 +5406,9 @@
       <c r="E48" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="F48" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G48" s="1" t="s">
         <v>6</v>
       </c>
@@ -5297,6 +5441,9 @@
       <c r="E49" s="1">
         <v>86922958</v>
       </c>
+      <c r="F49" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G49" s="1" t="s">
         <v>6</v>
       </c>
@@ -5329,6 +5476,9 @@
       <c r="E50" s="1">
         <v>86436566</v>
       </c>
+      <c r="F50" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G50" s="1" t="s">
         <v>6</v>
       </c>
@@ -5361,6 +5511,9 @@
       <c r="E51" s="1">
         <v>75380206</v>
       </c>
+      <c r="F51" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G51" s="1" t="s">
         <v>6</v>
       </c>
@@ -5393,6 +5546,9 @@
       <c r="E52" s="1">
         <v>18270909</v>
       </c>
+      <c r="F52" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G52" s="1" t="s">
         <v>6</v>
       </c>
@@ -5425,6 +5581,9 @@
       <c r="E53" s="1">
         <v>62564319</v>
       </c>
+      <c r="F53" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G53" s="1" t="s">
         <v>6</v>
       </c>
@@ -5457,6 +5616,9 @@
       <c r="E54" s="1">
         <v>73182935</v>
       </c>
+      <c r="F54" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G54" s="1" t="s">
         <v>6</v>
       </c>
@@ -5489,6 +5651,9 @@
       <c r="E55" s="1">
         <v>21770892</v>
       </c>
+      <c r="F55" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G55" s="1" t="s">
         <v>6</v>
       </c>
@@ -5521,6 +5686,9 @@
       <c r="E56" s="1">
         <v>89032776</v>
       </c>
+      <c r="F56" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G56" s="1" t="s">
         <v>6</v>
       </c>
@@ -5553,6 +5721,9 @@
       <c r="E57" s="1">
         <v>84401453</v>
       </c>
+      <c r="F57" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G57" s="1" t="s">
         <v>6</v>
       </c>
@@ -5585,6 +5756,9 @@
       <c r="E58" s="1">
         <v>34287307</v>
       </c>
+      <c r="F58" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G58" s="1" t="s">
         <v>6</v>
       </c>
@@ -5617,6 +5791,9 @@
       <c r="E59" s="1">
         <v>18713246</v>
       </c>
+      <c r="F59" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G59" s="1" t="s">
         <v>6</v>
       </c>
@@ -5649,6 +5826,9 @@
       <c r="E60" s="1">
         <v>55298168</v>
       </c>
+      <c r="F60" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G60" s="1" t="s">
         <v>6</v>
       </c>
@@ -5681,6 +5861,9 @@
       <c r="E61" s="1">
         <v>31430907</v>
       </c>
+      <c r="F61" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G61" s="1" t="s">
         <v>6</v>
       </c>
@@ -5713,6 +5896,9 @@
       <c r="E62" s="1">
         <v>47024498</v>
       </c>
+      <c r="F62" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G62" s="1" t="s">
         <v>6</v>
       </c>
@@ -5745,6 +5931,9 @@
       <c r="E63" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="F63" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G63" s="1" t="s">
         <v>6</v>
       </c>
@@ -5777,6 +5966,9 @@
       <c r="E64" s="1">
         <v>17040135</v>
       </c>
+      <c r="F64" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G64" s="1" t="s">
         <v>6</v>
       </c>
@@ -5809,6 +6001,9 @@
       <c r="E65" s="1">
         <v>68540910</v>
       </c>
+      <c r="F65" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G65" s="1" t="s">
         <v>6</v>
       </c>
@@ -5841,6 +6036,9 @@
       <c r="E66" s="1">
         <v>80325877</v>
       </c>
+      <c r="F66" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G66" s="1" t="s">
         <v>6</v>
       </c>
@@ -5873,6 +6071,9 @@
       <c r="E67" s="1">
         <v>67307935</v>
       </c>
+      <c r="F67" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G67" s="1" t="s">
         <v>6</v>
       </c>
@@ -5905,6 +6106,9 @@
       <c r="E68" s="1">
         <v>19534338</v>
       </c>
+      <c r="F68" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G68" s="1" t="s">
         <v>6</v>
       </c>
@@ -5937,6 +6141,9 @@
       <c r="E69" s="1">
         <v>89258111</v>
       </c>
+      <c r="F69" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G69" s="1" t="s">
         <v>6</v>
       </c>
@@ -5969,6 +6176,9 @@
       <c r="E70" s="1">
         <v>29486020</v>
       </c>
+      <c r="F70" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G70" s="1" t="s">
         <v>6</v>
       </c>
@@ -6001,6 +6211,9 @@
       <c r="E71" s="1">
         <v>30534151</v>
       </c>
+      <c r="F71" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G71" s="1" t="s">
         <v>6</v>
       </c>
@@ -6033,6 +6246,9 @@
       <c r="E72" s="1">
         <v>40492520</v>
       </c>
+      <c r="F72" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G72" s="1" t="s">
         <v>6</v>
       </c>
@@ -6065,6 +6281,9 @@
       <c r="E73" s="1">
         <v>40672045</v>
       </c>
+      <c r="F73" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G73" s="1" t="s">
         <v>6</v>
       </c>
@@ -6097,6 +6316,9 @@
       <c r="E74" s="1">
         <v>46464032</v>
       </c>
+      <c r="F74" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G74" s="1" t="s">
         <v>6</v>
       </c>
@@ -6129,6 +6351,9 @@
       <c r="E75" s="1">
         <v>49376026</v>
       </c>
+      <c r="F75" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G75" s="1" t="s">
         <v>6</v>
       </c>
@@ -6161,6 +6386,9 @@
       <c r="E76" s="1">
         <v>73075459</v>
       </c>
+      <c r="F76" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G76" s="1" t="s">
         <v>6</v>
       </c>
@@ -6193,6 +6421,9 @@
       <c r="E77" s="1">
         <v>98052346</v>
       </c>
+      <c r="F77" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G77" s="1" t="s">
         <v>6</v>
       </c>
@@ -6225,6 +6456,9 @@
       <c r="E78" s="1">
         <v>15481084</v>
       </c>
+      <c r="F78" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G78" s="1" t="s">
         <v>6</v>
       </c>
@@ -6257,6 +6491,9 @@
       <c r="E79" s="1">
         <v>39630579</v>
       </c>
+      <c r="F79" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G79" s="1" t="s">
         <v>6</v>
       </c>
@@ -6289,6 +6526,9 @@
       <c r="E80" s="1">
         <v>83146202</v>
       </c>
+      <c r="F80" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G80" s="1" t="s">
         <v>6</v>
       </c>
@@ -6321,6 +6561,9 @@
       <c r="E81" s="1">
         <v>86707179</v>
       </c>
+      <c r="F81" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G81" s="1" t="s">
         <v>6</v>
       </c>
@@ -6353,6 +6596,9 @@
       <c r="E82" s="1">
         <v>40342542</v>
       </c>
+      <c r="F82" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G82" s="1" t="s">
         <v>6</v>
       </c>
@@ -6385,6 +6631,9 @@
       <c r="E83" s="1">
         <v>78791420</v>
       </c>
+      <c r="F83" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G83" s="1" t="s">
         <v>6</v>
       </c>
@@ -6417,6 +6666,9 @@
       <c r="E84" s="1" t="s">
         <v>1084</v>
       </c>
+      <c r="F84" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G84" s="1" t="s">
         <v>6</v>
       </c>
@@ -6449,6 +6701,9 @@
       <c r="E85" s="1">
         <v>92040568</v>
       </c>
+      <c r="F85" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G85" s="1" t="s">
         <v>6</v>
       </c>
@@ -6481,6 +6736,9 @@
       <c r="E86" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="F86" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G86" s="1" t="s">
         <v>6</v>
       </c>
@@ -6513,6 +6771,9 @@
       <c r="E87" s="1">
         <v>81700104</v>
       </c>
+      <c r="F87" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G87" s="1" t="s">
         <v>6</v>
       </c>
@@ -6545,6 +6806,9 @@
       <c r="E88" s="1">
         <v>78771117</v>
       </c>
+      <c r="F88" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G88" s="1" t="s">
         <v>6</v>
       </c>
@@ -6577,6 +6841,9 @@
       <c r="E89" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="F89" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G89" s="1" t="s">
         <v>6</v>
       </c>
@@ -6609,6 +6876,9 @@
       <c r="E90" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="F90" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G90" s="1" t="s">
         <v>6</v>
       </c>
@@ -6641,6 +6911,9 @@
       <c r="E91" s="1">
         <v>24460781</v>
       </c>
+      <c r="F91" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G91" s="1" t="s">
         <v>6</v>
       </c>
@@ -6673,6 +6946,9 @@
       <c r="E92" s="1">
         <v>38447660</v>
       </c>
+      <c r="F92" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G92" s="1" t="s">
         <v>6</v>
       </c>
@@ -6705,6 +6981,9 @@
       <c r="E93" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="F93" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G93" s="1" t="s">
         <v>6</v>
       </c>
@@ -6737,6 +7016,9 @@
       <c r="E94" s="1">
         <v>62104183</v>
       </c>
+      <c r="F94" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G94" s="1" t="s">
         <v>6</v>
       </c>
@@ -6769,6 +7051,9 @@
       <c r="E95" s="1">
         <v>54709573</v>
       </c>
+      <c r="F95" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G95" s="1" t="s">
         <v>6</v>
       </c>
@@ -6801,6 +7086,9 @@
       <c r="E96" s="1">
         <v>84352829</v>
       </c>
+      <c r="F96" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G96" s="1" t="s">
         <v>6</v>
       </c>
@@ -6833,6 +7121,9 @@
       <c r="E97" s="1">
         <v>72641669</v>
       </c>
+      <c r="F97" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G97" s="1" t="s">
         <v>6</v>
       </c>
@@ -6865,6 +7156,9 @@
       <c r="E98" s="1">
         <v>77424584</v>
       </c>
+      <c r="F98" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G98" s="1" t="s">
         <v>6</v>
       </c>
@@ -6897,6 +7191,9 @@
       <c r="E99" s="1">
         <v>11627771</v>
       </c>
+      <c r="F99" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G99" s="1" t="s">
         <v>6</v>
       </c>
@@ -6929,6 +7226,9 @@
       <c r="E100" s="1">
         <v>17389523</v>
       </c>
+      <c r="F100" s="1" t="s">
+        <v>1087</v>
+      </c>
       <c r="G100" s="1" t="s">
         <v>6</v>
       </c>
@@ -6960,6 +7260,9 @@
       </c>
       <c r="E101" s="1">
         <v>24800409</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>1087</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>6</v>
@@ -8221,7 +8524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C415E28E-75D8-4383-BA14-825E63676B6A}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
